--- a/TestOneDrive.xlsx
+++ b/TestOneDrive.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataRun" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>TestName</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Laddu@431</t>
+  </si>
+  <si>
+    <t>Run</t>
   </si>
 </sst>
 </file>
@@ -359,15 +362,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,8 +380,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -387,6 +393,9 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
